--- a/Sensors Calibration.xlsx
+++ b/Sensors Calibration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seungmin\Desktop\Seungmin\UoA Engineering 2017\MEHCENG 706 SLAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seungmin\Desktop\Seungmin\UoA Engineering 2017\MEHCENG 706 SLAM\706_SLAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Sensors Calibration</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>cm in 2dp</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>log s3</t>
+  </si>
+  <si>
+    <t>log s4</t>
+  </si>
+  <si>
+    <t>log Dis</t>
   </si>
 </sst>
 </file>
@@ -1545,6 +1557,3685 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-709F-4D93-9D3C-2681D8F1E723}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406396328"/>
+        <c:axId val="406398624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406396328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406398624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406396328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7A9-42BC-8B8D-185534267E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406396328"/>
+        <c:axId val="406398624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406396328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406398624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406396328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.07</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.715000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-836A-4F08-AC31-1FBD7FA0CDCC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406396328"/>
+        <c:axId val="406398624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406396328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406398624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406396328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>11.917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9B7-45B5-812F-82B6BE718223}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406396328"/>
+        <c:axId val="406398624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406396328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406398624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406396328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log s3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.99651167215417857</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17435059747938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2324878663529861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2812606870550127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3809344633307019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3998467127129224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4659773682858226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4931791206825151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5245259366263757</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.557146142318363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5841049703994525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5700757053216039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.634578022853888</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5986810989071631</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6202922479198405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BFF7-424A-93A6-907DB3E84F14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406396328"/>
+        <c:axId val="406398624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406396328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406398624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406396328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0761669393449325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2245330626060855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3340514403468917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4104397862103464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4791432479786129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5189085736914141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5635997288815309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5960470075454389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6188844849954502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.616265405281708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6109793799229968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.598571663482141</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5516939151272244</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5366846726209298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5132176000679387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1961-4FDE-9DF4-9978131F2FEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406396328"/>
+        <c:axId val="406398624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406396328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406398624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406396328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log s4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$5:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.0761669393449325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2245330626060855</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3340514403468917</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4104397862103464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4791432479786129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5189085736914141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5635997288815309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5960470075454389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6188844849954502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.616265405281708</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6109793799229968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.598571663482141</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5516939151272244</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5366846726209298</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5132176000679387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1760912590556811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.301029995663981</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5440680443502754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6020599913279623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6989700043360185</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7403626894942439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8129133566428552</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8750612633916997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9030899869919433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70C3-4D18-B9F5-737AFA7E7DAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406396328"/>
+        <c:axId val="406398624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406396328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406398624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406398624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ"/>
+                  <a:t>Actual</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406396328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1625,6 +5316,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2129,6 +6100,3618 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2729,6 +10312,275 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA947BE4-5887-463C-B4B0-4BFC8EBE1956}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96D52B0-1EEC-4116-81F5-22BEBF6828E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B491BC2-2B23-4AAD-A281-0DD0D8E7F37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13372DB7-3FC7-4028-8BD8-2A9C2E0D6EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F682BC3E-4BB8-41F7-84DF-016DAE20B3AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52240C2-CC66-4E56-A9FA-F06E8D3B584F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B986597-C7BA-4D2E-8073-1DA035E9207E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3031,8 +10883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3042,6 +10894,7 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3063,6 +10916,9 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
@@ -3080,6 +10936,15 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
@@ -3097,11 +10962,24 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
       <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <f>LOG(A4,10)</f>
+        <v>0.69897000433601875</v>
+      </c>
+      <c r="L4" t="s">
         <v>11</v>
       </c>
       <c r="P4">
-        <v>33.57</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3120,11 +10998,26 @@
       <c r="E5">
         <v>11.917</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f>LOG(D5,10)</f>
+        <v>0.99651167215417857</v>
+      </c>
+      <c r="H5">
+        <f>LOG(E5,10)</f>
+        <v>1.0761669393449325</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I19" si="0">LOG(A5,10)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>12</v>
       </c>
       <c r="P5">
-        <v>35.29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3143,8 +11036,23 @@
       <c r="E6">
         <v>16.77</v>
       </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G19" si="1">LOG(D6,10)</f>
+        <v>1.17435059747938</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H19" si="2">LOG(E6,10)</f>
+        <v>1.2245330626060855</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.1760912590556811</v>
+      </c>
       <c r="P6">
-        <v>31.58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3163,8 +11071,23 @@
       <c r="E7">
         <v>21.58</v>
       </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.2324878663529861</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1.3340514403468917</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.301029995663981</v>
+      </c>
       <c r="P7">
-        <v>30.19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3183,8 +11106,23 @@
       <c r="E8">
         <v>25.73</v>
       </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.2812606870550127</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1.4104397862103464</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.3979400086720375</v>
+      </c>
       <c r="P8">
-        <v>28.07</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3203,8 +11141,23 @@
       <c r="E9">
         <v>30.14</v>
       </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.3809344633307019</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1.4791432479786129</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1.4771212547196624</v>
+      </c>
       <c r="P9">
-        <v>32.43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3223,8 +11176,23 @@
       <c r="E10">
         <v>33.03</v>
       </c>
+      <c r="F10">
+        <v>34.9</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.3998467127129224</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1.5189085736914141</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.5440680443502754</v>
+      </c>
       <c r="P10">
-        <v>34.53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3243,8 +11211,23 @@
       <c r="E11">
         <v>36.61</v>
       </c>
+      <c r="F11">
+        <v>41</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.4659773682858226</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1.5635997288815309</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.6020599913279623</v>
+      </c>
       <c r="P11">
-        <v>34.29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3263,8 +11246,23 @@
       <c r="E12">
         <v>39.450000000000003</v>
       </c>
+      <c r="F12">
+        <v>45.2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.4931791206825151</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.5960470075454389</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.6532125137753435</v>
+      </c>
       <c r="P12">
-        <v>33.57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -3283,8 +11281,23 @@
       <c r="E13">
         <v>41.58</v>
       </c>
+      <c r="F13">
+        <v>49.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.5245259366263757</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.6188844849954502</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1.6989700043360185</v>
+      </c>
       <c r="P13">
-        <v>32.43</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3303,9 +11316,24 @@
       <c r="E14">
         <v>41.33</v>
       </c>
+      <c r="F14">
+        <v>54.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.557146142318363</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.616265405281708</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.7403626894942439</v>
+      </c>
       <c r="P14">
         <f>AVERAGE(P4:P13)</f>
-        <v>32.594999999999999</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -3324,6 +11352,21 @@
       <c r="E15">
         <v>40.83</v>
       </c>
+      <c r="F15">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.5841049703994525</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1.6109793799229968</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.7781512503836434</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
@@ -3341,8 +11384,23 @@
       <c r="E16">
         <v>39.68</v>
       </c>
+      <c r="F16">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.5700757053216039</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1.598571663482141</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.8129133566428552</v>
+      </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>70</v>
       </c>
@@ -3358,8 +11416,23 @@
       <c r="E17">
         <v>35.619999999999997</v>
       </c>
+      <c r="F17">
+        <v>71.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.634578022853888</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.5516939151272244</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.8450980400142569</v>
+      </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>75</v>
       </c>
@@ -3375,8 +11448,23 @@
       <c r="E18">
         <v>34.409999999999997</v>
       </c>
+      <c r="F18">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.5986810989071631</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1.5366846726209298</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.8750612633916997</v>
+      </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>80</v>
       </c>
@@ -3391,6 +11479,21 @@
       </c>
       <c r="E19">
         <v>32.6</v>
+      </c>
+      <c r="F19">
+        <v>80.3</v>
+      </c>
+      <c r="G19">
+        <f>LOG(D19,10)</f>
+        <v>1.6202922479198405</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1.5132176000679387</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1.9030899869919433</v>
       </c>
     </row>
   </sheetData>
@@ -3398,5 +11501,6 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sensors Calibration.xlsx
+++ b/Sensors Calibration.xlsx
@@ -4710,6 +4710,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ"/>
+              <a:t>log s4 vs log dis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10884,7 +10909,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11040,7 +11065,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G19" si="1">LOG(D6,10)</f>
+        <f t="shared" ref="G6:G18" si="1">LOG(D6,10)</f>
         <v>1.17435059747938</v>
       </c>
       <c r="H6">

--- a/Sensors Calibration.xlsx
+++ b/Sensors Calibration.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="s1 and s2" sheetId="3" r:id="rId1"/>
@@ -10267,7 +10267,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10908,8 +10908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
